--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject45.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject45.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -143,7 +143,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="0">
-        <v>0</v>
+        <v>0.77853789799922701</v>
       </c>
       <c r="G1" s="0">
         <v>0</v>
@@ -182,7 +182,7 @@
         <v>0</v>
       </c>
       <c r="S1" s="0">
-        <v>0</v>
+        <v>0.5467301662695494</v>
       </c>
       <c r="T1" s="0">
         <v>0</v>
@@ -251,13 +251,13 @@
         <v>0</v>
       </c>
       <c r="AP1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ1" s="0">
         <v>0</v>
       </c>
       <c r="AR1" s="0">
-        <v>0</v>
+        <v>0.86604774456873379</v>
       </c>
       <c r="AS1" s="0">
         <v>0</v>
@@ -293,7 +293,7 @@
         <v>0</v>
       </c>
       <c r="BD1" s="0">
-        <v>0</v>
+        <v>0.66179256081261295</v>
       </c>
       <c r="BE1" s="0">
         <v>0</v>
@@ -308,7 +308,7 @@
         <v>0</v>
       </c>
       <c r="BI1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ1" s="0">
         <v>0</v>
@@ -320,16 +320,16 @@
         <v>0</v>
       </c>
       <c r="BM1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN1" s="0">
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -340,10 +340,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.88787566080525582</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>0.67323136255652782</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -376,7 +376,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="0">
         <v>0</v>
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="AD2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="0">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="0">
         <v>0</v>
@@ -466,13 +466,13 @@
         <v>0</v>
       </c>
       <c r="AS2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="0">
         <v>0</v>
       </c>
       <c r="AU2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV2" s="0">
         <v>0</v>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="BH2" s="0">
-        <v>0</v>
+        <v>0.95475615606438435</v>
       </c>
       <c r="BI2" s="0">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="BM2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="0">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>0.85488165432904339</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>0.98449714208956496</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="0">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="AH3" s="0">
-        <v>0</v>
+        <v>0.76240739805767177</v>
       </c>
       <c r="AI3" s="0">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="AO3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="0">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="AW3" s="0">
-        <v>0</v>
+        <v>0.88756943839004632</v>
       </c>
       <c r="AX3" s="0">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="0">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="BF3" s="0">
-        <v>0</v>
+        <v>0.89284263218044668</v>
       </c>
       <c r="BG3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>0.7031089418635007</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="0">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="0">
-        <v>0</v>
+        <v>0.64758064153153905</v>
       </c>
       <c r="Q4" s="0">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="0">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Y4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="0">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="0">
-        <v>0</v>
+        <v>0.92770229711139884</v>
       </c>
       <c r="AJ4" s="0">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="AM4" s="0">
-        <v>0</v>
+        <v>0.81693578906598452</v>
       </c>
       <c r="AN4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>0.96324015957352793</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -976,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="I5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0</v>
+        <v>0.80009934897341195</v>
       </c>
       <c r="L5" s="0">
         <v>0</v>
       </c>
       <c r="M5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="0">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="W5" s="0">
-        <v>0</v>
+        <v>0.6738229447761761</v>
       </c>
       <c r="X5" s="0">
         <v>0</v>
       </c>
       <c r="Y5" s="0">
-        <v>0</v>
+        <v>0.63627467639839552</v>
       </c>
       <c r="Z5" s="0">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="AM5" s="0">
-        <v>0</v>
+        <v>0.92650819652594851</v>
       </c>
       <c r="AN5" s="0">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="BK5" s="0">
-        <v>0</v>
+        <v>0.74598069908260956</v>
       </c>
       <c r="BL5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM5" s="0">
-        <v>0</v>
+        <v>0.61567187105863974</v>
       </c>
       <c r="BN5" s="0">
         <v>0</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0</v>
+        <v>0.79018535775080501</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
@@ -1179,10 +1179,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="0">
-        <v>0</v>
+        <v>0.79689313633177428</v>
       </c>
       <c r="AC6" s="0">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="AF6" s="0">
-        <v>0</v>
+        <v>0.74544319674525106</v>
       </c>
       <c r="AG6" s="0">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="BK6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL6" s="0">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="0">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="0">
-        <v>0</v>
+        <v>0.94755420208512386</v>
       </c>
       <c r="AC7" s="0">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="AN7" s="0">
-        <v>0</v>
+        <v>0.82477703934416624</v>
       </c>
       <c r="AO7" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.83685936232352698</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="0">
-        <v>0</v>
+        <v>0.76019292256769089</v>
       </c>
       <c r="O8" s="0">
         <v>0</v>
@@ -1648,13 +1648,13 @@
         <v>0</v>
       </c>
       <c r="AA8" s="0">
-        <v>0</v>
+        <v>0.56323036009011251</v>
       </c>
       <c r="AB8" s="0">
         <v>0</v>
       </c>
       <c r="AC8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="0">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="AQ8" s="0">
-        <v>0</v>
+        <v>0.70665628648062784</v>
       </c>
       <c r="AR8" s="0">
         <v>0</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="BB8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="0">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="BO8" s="0">
-        <v>0</v>
+        <v>0.60042104541827612</v>
       </c>
       <c r="BP8" s="0">
         <v>0</v>
@@ -1788,13 +1788,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0</v>
+        <v>0.5614685667754522</v>
       </c>
       <c r="K9" s="0">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="0">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="0">
-        <v>0</v>
+        <v>0.55148863906265966</v>
       </c>
       <c r="AC9" s="0">
         <v>0</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="AI9" s="0">
-        <v>0</v>
+        <v>0.57331985238856387</v>
       </c>
       <c r="AJ9" s="0">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="0">
         <v>0</v>
@@ -2003,16 +2003,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.89602084631394652</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
+        <v>0.80626688197643537</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="0">
-        <v>0</v>
+        <v>0.89551807731388067</v>
       </c>
       <c r="W10" s="0">
         <v>0</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="AD10" s="0">
-        <v>0</v>
+        <v>0.50156011054734639</v>
       </c>
       <c r="AE10" s="0">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="AO10" s="0">
-        <v>0</v>
+        <v>0.71281932871237974</v>
       </c>
       <c r="AP10" s="0">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="AW10" s="0">
-        <v>0</v>
+        <v>0.59044890807212536</v>
       </c>
       <c r="AX10" s="0">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="BK10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL10" s="0">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="0">
-        <v>0</v>
+        <v>0.95513095931378633</v>
       </c>
       <c r="F11" s="0">
         <v>0</v>
@@ -2215,13 +2215,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0</v>
+        <v>0.5553899463375116</v>
       </c>
       <c r="M11" s="0">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="0">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="AZ11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="0">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="BL11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM11" s="0">
         <v>0</v>
@@ -2424,16 +2424,16 @@
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>0</v>
+        <v>0.87267717828443714</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="0">
-        <v>0</v>
+        <v>0.661320297469292</v>
       </c>
       <c r="Z12" s="0">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="AG12" s="0">
-        <v>0</v>
+        <v>0.92741919146586116</v>
       </c>
       <c r="AH12" s="0">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="AW12" s="0">
-        <v>0</v>
+        <v>0.98076436028305713</v>
       </c>
       <c r="AX12" s="0">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="BP12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="0">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.86677883135664335</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="0">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="AF13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="0">
         <v>0</v>
@@ -2735,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="AT13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="0">
         <v>0</v>
       </c>
       <c r="AV13" s="0">
-        <v>0</v>
+        <v>0.81196046548103462</v>
       </c>
       <c r="AW13" s="0">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="BE13" s="0">
-        <v>0</v>
+        <v>0.93266157258777183</v>
       </c>
       <c r="BF13" s="0">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0</v>
+        <v>0.64798351555825362</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="0">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="0">
-        <v>0</v>
+        <v>0.94000264106789566</v>
       </c>
       <c r="Z14" s="0">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="0">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="BK14" s="0">
-        <v>0</v>
+        <v>0.66354921052338267</v>
       </c>
       <c r="BL14" s="0">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="0">
         <v>0</v>
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="0">
         <v>0</v>
@@ -3048,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.75037030688129813</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="0">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="AU15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV15" s="0">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="BO15" s="0">
-        <v>0</v>
+        <v>0.55415013241486388</v>
       </c>
       <c r="BP15" s="0">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="0">
-        <v>0</v>
+        <v>0.64138180816615176</v>
       </c>
       <c r="E16" s="0">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="0">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0</v>
+        <v>0.57926947881453739</v>
       </c>
       <c r="R16" s="0">
-        <v>0</v>
+        <v>0.90384115330057657</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="AE16" s="0">
-        <v>0</v>
+        <v>0.57201703257634084</v>
       </c>
       <c r="AF16" s="0">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="AV16" s="0">
-        <v>0</v>
+        <v>0.85962838291168964</v>
       </c>
       <c r="AW16" s="0">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="BI16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ16" s="0">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="BL16" s="0">
-        <v>0</v>
+        <v>0.56614364076407175</v>
       </c>
       <c r="BM16" s="0">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="0">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>0</v>
+        <v>0.61936001823260201</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>0.57423780413915004</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="0">
-        <v>0</v>
+        <v>0.76403612539546528</v>
       </c>
       <c r="AA17" s="0">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="0">
-        <v>0</v>
+        <v>0.67227884152434192</v>
       </c>
       <c r="AT17" s="0">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="AX17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="0">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="BH17" s="0">
-        <v>0</v>
+        <v>0.53059101095886319</v>
       </c>
       <c r="BI17" s="0">
         <v>0</v>
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="BM17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0</v>
+        <v>0.63882407354465309</v>
       </c>
       <c r="Q18" s="0">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="0">
-        <v>0</v>
+        <v>0.802676436554002</v>
       </c>
       <c r="X18" s="0">
         <v>0</v>
@@ -3729,10 +3729,10 @@
         <v>0</v>
       </c>
       <c r="AH18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="0">
-        <v>0</v>
+        <v>0.86169397716978047</v>
       </c>
       <c r="AJ18" s="0">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="AM18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN18" s="0">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ18" s="0">
         <v>0</v>
@@ -3792,13 +3792,13 @@
         <v>0</v>
       </c>
       <c r="BC18" s="0">
-        <v>0</v>
+        <v>0.92738685193224946</v>
       </c>
       <c r="BD18" s="0">
         <v>0</v>
       </c>
       <c r="BE18" s="0">
-        <v>0</v>
+        <v>0.53873770890027561</v>
       </c>
       <c r="BF18" s="0">
         <v>0</v>
@@ -3831,12 +3831,12 @@
         <v>0</v>
       </c>
       <c r="BP18" s="0">
-        <v>0</v>
+        <v>0.70531692991587058</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0</v>
+        <v>0.69576715418328594</v>
       </c>
       <c r="B19" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0</v>
+        <v>0.756576339529201</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>0</v>
+        <v>0.97604307442460558</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="Z19" s="0">
-        <v>0</v>
+        <v>0.91887093951296794</v>
       </c>
       <c r="AA19" s="0">
         <v>0</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" s="0">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="BC19" s="0">
-        <v>0</v>
+        <v>0.78167505559929507</v>
       </c>
       <c r="BD19" s="0">
         <v>0</v>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="BF19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG19" s="0">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="0">
-        <v>0</v>
+        <v>0.69874176995994386</v>
       </c>
       <c r="AD20" s="0">
         <v>0</v>
@@ -4153,10 +4153,10 @@
         <v>0</v>
       </c>
       <c r="AL20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN20" s="0">
         <v>0</v>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="BN20" s="0">
-        <v>0</v>
+        <v>0.53425768910085103</v>
       </c>
       <c r="BO20" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0</v>
+        <v>0.50866317433686214</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="0">
-        <v>0</v>
+        <v>0.93311518863062903</v>
       </c>
       <c r="AQ21" s="0">
         <v>0</v>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="AT21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="0">
         <v>0</v>
@@ -4410,13 +4410,13 @@
         <v>0</v>
       </c>
       <c r="BC21" s="0">
-        <v>0</v>
+        <v>0.92143504173130286</v>
       </c>
       <c r="BD21" s="0">
         <v>0</v>
       </c>
       <c r="BE21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF21" s="0">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="BI21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ21" s="0">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="BN21" s="0">
-        <v>1</v>
+        <v>0.65557472169397724</v>
       </c>
       <c r="BO21" s="0">
         <v>0</v>
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="0">
-        <v>0</v>
+        <v>0.60827542888161057</v>
       </c>
       <c r="K22" s="0">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="0">
         <v>0</v>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="AD22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="0">
         <v>0</v>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="AW22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX22" s="0">
         <v>0</v>
@@ -4607,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="AZ22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="0">
         <v>0</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="BM22" s="0">
-        <v>0</v>
+        <v>0.76391190988117863</v>
       </c>
       <c r="BN22" s="0">
         <v>0</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="0">
-        <v>0</v>
+        <v>0.81100850698411664</v>
       </c>
       <c r="F23" s="0">
         <v>0</v>
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="0">
-        <v>0</v>
+        <v>0.99071476038459161</v>
       </c>
       <c r="S23" s="0">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="AU23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV23" s="0">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="BI23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ23" s="0">
         <v>0</v>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="0">
         <v>0</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="0">
         <v>0</v>
@@ -4932,16 +4932,16 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0</v>
+        <v>0.61486737116964196</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="AN24" s="0">
-        <v>0</v>
+        <v>0.52272693161723915</v>
       </c>
       <c r="AO24" s="0">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="AV24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW24" s="0">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="BN24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO24" s="0">
         <v>0</v>
@@ -5081,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="D25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="0">
-        <v>0</v>
+        <v>0.60879697106592223</v>
       </c>
       <c r="F25" s="0">
         <v>0</v>
@@ -5105,13 +5105,13 @@
         <v>0</v>
       </c>
       <c r="L25" s="0">
-        <v>0</v>
+        <v>0.72109625596507732</v>
       </c>
       <c r="M25" s="0">
         <v>0</v>
       </c>
       <c r="N25" s="0">
-        <v>0</v>
+        <v>0.62777282884623808</v>
       </c>
       <c r="O25" s="0">
         <v>0</v>
@@ -5141,13 +5141,13 @@
         <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>0</v>
+        <v>0.83239868529799588</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="AD25" s="0">
-        <v>0</v>
+        <v>0.79753030593918162</v>
       </c>
       <c r="AE25" s="0">
         <v>0</v>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25" s="0">
         <v>0</v>
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="AN25" s="0">
-        <v>0</v>
+        <v>0.75684374976597313</v>
       </c>
       <c r="AO25" s="0">
         <v>0</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="BC25" s="0">
-        <v>0</v>
+        <v>0.54479517080819972</v>
       </c>
       <c r="BD25" s="0">
         <v>0</v>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="BK25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL25" s="0">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="BN25" s="0">
-        <v>0</v>
+        <v>0.55752460343827992</v>
       </c>
       <c r="BO25" s="0">
         <v>0</v>
@@ -5326,13 +5326,13 @@
         <v>0</v>
       </c>
       <c r="Q26" s="0">
-        <v>0</v>
+        <v>0.57889208346854426</v>
       </c>
       <c r="R26" s="0">
         <v>0</v>
       </c>
       <c r="S26" s="0">
-        <v>0</v>
+        <v>0.78306299668792323</v>
       </c>
       <c r="T26" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.86972341326730884</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="AO26" s="0">
-        <v>0</v>
+        <v>0.65876693632065453</v>
       </c>
       <c r="AP26" s="0">
         <v>0</v>
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="BG26" s="0">
-        <v>0</v>
+        <v>0.74090668724721787</v>
       </c>
       <c r="BH26" s="0">
         <v>0</v>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="0">
-        <v>0</v>
+        <v>0.73600656612360571</v>
       </c>
       <c r="I27" s="0">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.90384952706383559</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="0">
         <v>0</v>
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="0">
         <v>0</v>
@@ -5634,13 +5634,13 @@
         <v>0</v>
       </c>
       <c r="AY27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ27" s="0">
         <v>0</v>
       </c>
       <c r="BA27" s="0">
-        <v>0</v>
+        <v>0.67053213841378145</v>
       </c>
       <c r="BB27" s="0">
         <v>0</v>
@@ -5676,10 +5676,10 @@
         <v>0</v>
       </c>
       <c r="BM27" s="0">
-        <v>0</v>
+        <v>0.929645074848652</v>
       </c>
       <c r="BN27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO27" s="0">
         <v>0</v>
@@ -5705,22 +5705,22 @@
         <v>0</v>
       </c>
       <c r="F28" s="0">
-        <v>0</v>
+        <v>0.95018849545554251</v>
       </c>
       <c r="G28" s="0">
-        <v>0</v>
+        <v>0.51328232112628336</v>
       </c>
       <c r="H28" s="0">
         <v>0</v>
       </c>
       <c r="I28" s="0">
-        <v>0</v>
+        <v>0.79076226732455523</v>
       </c>
       <c r="J28" s="0">
         <v>0</v>
       </c>
       <c r="K28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="0">
         <v>0</v>
@@ -5774,16 +5774,16 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0</v>
+        <v>0.55555020952685774</v>
       </c>
       <c r="AD28" s="0">
-        <v>0</v>
+        <v>0.81947018426648743</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
       </c>
       <c r="AF28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="0">
         <v>0</v>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="AW28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX28" s="0">
         <v>0</v>
@@ -5849,19 +5849,19 @@
         <v>0</v>
       </c>
       <c r="BB28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC28" s="0">
         <v>0</v>
       </c>
       <c r="BD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE28" s="0">
         <v>0</v>
       </c>
       <c r="BF28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG28" s="0">
         <v>0</v>
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="0">
         <v>0</v>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="0">
-        <v>0</v>
+        <v>0.97640950058664844</v>
       </c>
       <c r="U29" s="0">
         <v>0</v>
@@ -5977,13 +5977,13 @@
         <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>0</v>
+        <v>0.83660340813047196</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0</v>
+        <v>0.86951798018655779</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="AS29" s="0">
-        <v>0</v>
+        <v>0.72124516713060771</v>
       </c>
       <c r="AT29" s="0">
         <v>0</v>
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="BD29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE29" s="0">
         <v>0</v>
@@ -6079,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="BJ29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK29" s="0">
         <v>0</v>
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="BN29" s="0">
-        <v>0</v>
+        <v>0.52498819667158425</v>
       </c>
       <c r="BO29" s="0">
         <v>0</v>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0">
         <v>0</v>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="0">
-        <v>0</v>
+        <v>0.66511208963471757</v>
       </c>
       <c r="K30" s="0">
         <v>0</v>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="0">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="0">
-        <v>0</v>
+        <v>0.78675786332623965</v>
       </c>
       <c r="Z30" s="0">
         <v>0</v>
@@ -6183,10 +6183,10 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0</v>
+        <v>0.59732323483126959</v>
       </c>
       <c r="AC30" s="0">
-        <v>0</v>
+        <v>0.70773791513499607</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="AI30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ30" s="0">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="AY30" s="0">
-        <v>0</v>
+        <v>0.72551740996712555</v>
       </c>
       <c r="AZ30" s="0">
         <v>0</v>
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="BI30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ30" s="0">
         <v>0</v>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="0">
-        <v>0</v>
+        <v>0.80325076403895723</v>
       </c>
       <c r="Q31" s="0">
         <v>0</v>
@@ -6362,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="0">
         <v>0</v>
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="AM31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN31" s="0">
         <v>0</v>
@@ -6449,10 +6449,10 @@
         <v>0</v>
       </c>
       <c r="AV31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX31" s="0">
         <v>0</v>
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="BO31" s="0">
-        <v>0</v>
+        <v>0.59246282207847278</v>
       </c>
       <c r="BP31" s="0">
         <v>0</v>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="0">
-        <v>0</v>
+        <v>0.52546578776959585</v>
       </c>
       <c r="G32" s="0">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="0">
         <v>0</v>
@@ -6595,13 +6595,13 @@
         <v>0</v>
       </c>
       <c r="AB32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="0">
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="0">
         <v>0</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="0">
         <v>0</v>
@@ -6634,10 +6634,10 @@
         <v>0</v>
       </c>
       <c r="AO32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP32" s="0">
-        <v>0</v>
+        <v>0.76712985222445562</v>
       </c>
       <c r="AQ32" s="0">
         <v>0</v>
@@ -6664,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="AY32" s="0">
-        <v>0</v>
+        <v>0.50366363383340074</v>
       </c>
       <c r="AZ32" s="0">
         <v>0</v>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="BO32" s="0">
-        <v>0</v>
+        <v>0.58236084375218533</v>
       </c>
       <c r="BP32" s="0">
         <v>0</v>
@@ -6753,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="0">
-        <v>0</v>
+        <v>0.55834744686408921</v>
       </c>
       <c r="M33" s="0">
         <v>0</v>
@@ -6813,13 +6813,13 @@
         <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0</v>
+        <v>0.87263251927219199</v>
       </c>
       <c r="AI33" s="0">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="AL33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="0">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="BA33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB33" s="0">
         <v>0</v>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="BG33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH33" s="0">
         <v>0</v>
@@ -6932,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="0">
-        <v>0</v>
+        <v>0.84995011930361619</v>
       </c>
       <c r="D34" s="0">
         <v>0</v>
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="R34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34" s="0">
         <v>0</v>
@@ -7022,16 +7022,16 @@
         <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>0</v>
+        <v>0.78026973810754752</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0</v>
+        <v>0.53713766920000006</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="AM34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN34" s="0">
         <v>0</v>
@@ -7064,13 +7064,13 @@
         <v>0</v>
       </c>
       <c r="AU34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV34" s="0">
         <v>0</v>
       </c>
       <c r="AW34" s="0">
-        <v>0</v>
+        <v>0.83689941199121631</v>
       </c>
       <c r="AX34" s="0">
         <v>0</v>
@@ -7103,13 +7103,13 @@
         <v>0</v>
       </c>
       <c r="BH34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI34" s="0">
         <v>0</v>
       </c>
       <c r="BJ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK34" s="0">
         <v>0</v>
@@ -7141,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="0">
-        <v>0</v>
+        <v>0.9765819274626697</v>
       </c>
       <c r="E35" s="0">
         <v>0</v>
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="0">
-        <v>0</v>
+        <v>0.53148176658800028</v>
       </c>
       <c r="J35" s="0">
         <v>0</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="0">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="0">
-        <v>0</v>
+        <v>0.81129420068164837</v>
       </c>
       <c r="S35" s="0">
         <v>0</v>
@@ -7219,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="AD35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="0">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>0</v>
+        <v>0.75057818544240384</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="AN35" s="0">
-        <v>0</v>
+        <v>0.5295161698426214</v>
       </c>
       <c r="AO35" s="0">
         <v>0</v>
@@ -7261,13 +7261,13 @@
         <v>0</v>
       </c>
       <c r="AR35" s="0">
-        <v>0</v>
+        <v>0.95518873983132346</v>
       </c>
       <c r="AS35" s="0">
-        <v>0</v>
+        <v>0.6678791365153518</v>
       </c>
       <c r="AT35" s="0">
-        <v>0</v>
+        <v>0.84433162863099764</v>
       </c>
       <c r="AU35" s="0">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="BI35" s="0">
-        <v>0</v>
+        <v>0.84741722442029899</v>
       </c>
       <c r="BJ35" s="0">
         <v>0</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="BN35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO35" s="0">
         <v>0</v>
@@ -7380,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="0">
         <v>0</v>
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>0</v>
+        <v>0.77007352570502285</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7473,19 +7473,19 @@
         <v>0</v>
       </c>
       <c r="AT36" s="0">
-        <v>0</v>
+        <v>0.59051382687570309</v>
       </c>
       <c r="AU36" s="0">
         <v>0</v>
       </c>
       <c r="AV36" s="0">
-        <v>0</v>
+        <v>0.81041923061600141</v>
       </c>
       <c r="AW36" s="0">
         <v>0</v>
       </c>
       <c r="AX36" s="0">
-        <v>0</v>
+        <v>0.69064841048950443</v>
       </c>
       <c r="AY36" s="0">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="BC36" s="0">
-        <v>0</v>
+        <v>0.96034134877972621</v>
       </c>
       <c r="BD36" s="0">
         <v>0</v>
@@ -7515,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="BH36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI36" s="0">
         <v>0</v>
@@ -7547,7 +7547,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="0">
         <v>0</v>
@@ -7622,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="AA37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.88683404505860641</v>
       </c>
       <c r="AM37" s="0">
         <v>0</v>
@@ -7703,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="BB37" s="0">
-        <v>0</v>
+        <v>0.84733476913379069</v>
       </c>
       <c r="BC37" s="0">
         <v>0</v>
@@ -7739,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="BN37" s="0">
-        <v>0</v>
+        <v>0.82203350126610619</v>
       </c>
       <c r="BO37" s="0">
         <v>0</v>
@@ -7807,7 +7807,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="0">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="AG38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="0">
         <v>0</v>
@@ -7855,10 +7855,10 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0</v>
+        <v>0.56952744235421982</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.75616504441078691</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="AP38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ38" s="0">
         <v>0</v>
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="0">
-        <v>0</v>
+        <v>0.73023025084643089</v>
       </c>
       <c r="AT38" s="0">
         <v>0</v>
@@ -7939,7 +7939,7 @@
         <v>0</v>
       </c>
       <c r="BL38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM38" s="0">
         <v>0</v>
@@ -7965,10 +7965,10 @@
         <v>0</v>
       </c>
       <c r="D39" s="0">
-        <v>0</v>
+        <v>0.65241505266027544</v>
       </c>
       <c r="E39" s="0">
-        <v>0</v>
+        <v>0.87447052851089913</v>
       </c>
       <c r="F39" s="0">
         <v>0</v>
@@ -8007,13 +8007,13 @@
         <v>0</v>
       </c>
       <c r="R39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" s="0">
         <v>0</v>
       </c>
       <c r="T39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="0">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="AE39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="0">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="AH39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI39" s="0">
         <v>0</v>
@@ -8112,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="BA39" s="0">
-        <v>0</v>
+        <v>0.94809832096793945</v>
       </c>
       <c r="BB39" s="0">
         <v>0</v>
@@ -8130,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="BG39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH39" s="0">
         <v>0</v>
@@ -8180,7 +8180,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="0">
-        <v>0</v>
+        <v>0.62120867492940079</v>
       </c>
       <c r="H40" s="0">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="X40" s="0">
-        <v>0</v>
+        <v>0.64177570949874752</v>
       </c>
       <c r="Y40" s="0">
-        <v>0</v>
+        <v>0.72381150398608818</v>
       </c>
       <c r="Z40" s="0">
         <v>0</v>
@@ -8264,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="AI40" s="0">
-        <v>0</v>
+        <v>0.77033594566730446</v>
       </c>
       <c r="AJ40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0</v>
+        <v>0.94139581176148468</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="AS40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="0">
         <v>0</v>
@@ -8354,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="BM40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN40" s="0">
         <v>0</v>
@@ -8374,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="0">
-        <v>0</v>
+        <v>0.88937600476641099</v>
       </c>
       <c r="K41" s="0">
         <v>0</v>
@@ -8443,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="Z41" s="0">
-        <v>0</v>
+        <v>0.51159483726583344</v>
       </c>
       <c r="AA41" s="0">
         <v>0</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="AF41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG41" s="0">
         <v>0</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0</v>
+        <v>0.70953944262838531</v>
       </c>
       <c r="AQ41" s="0">
         <v>0</v>
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="AX41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY41" s="0">
         <v>0</v>
@@ -8574,7 +8574,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42" s="0">
         <v>0</v>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42" s="0">
         <v>0</v>
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="0">
-        <v>0</v>
+        <v>0.956596073124097</v>
       </c>
       <c r="V42" s="0">
         <v>0</v>
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB42" s="0">
         <v>0</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="AF42" s="0">
-        <v>0</v>
+        <v>0.84941820417649283</v>
       </c>
       <c r="AG42" s="0">
         <v>0</v>
@@ -8685,16 +8685,16 @@
         <v>0</v>
       </c>
       <c r="AL42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" s="0">
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0</v>
+        <v>0.94998423776447494</v>
       </c>
       <c r="AO42" s="0">
-        <v>0</v>
+        <v>0.95539783835504055</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
@@ -8739,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="BD42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE42" s="0">
         <v>0</v>
@@ -8757,13 +8757,13 @@
         <v>0</v>
       </c>
       <c r="BJ42" s="0">
-        <v>0</v>
+        <v>0.54600696283108652</v>
       </c>
       <c r="BK42" s="0">
         <v>0</v>
       </c>
       <c r="BL42" s="0">
-        <v>0</v>
+        <v>0.89739070863922188</v>
       </c>
       <c r="BM42" s="0">
         <v>0</v>
@@ -8801,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="0">
-        <v>0</v>
+        <v>0.65612292190741917</v>
       </c>
       <c r="I43" s="0">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="0">
         <v>0</v>
@@ -8933,13 +8933,13 @@
         <v>0</v>
       </c>
       <c r="AZ43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA43" s="0">
         <v>0</v>
       </c>
       <c r="BB43" s="0">
-        <v>0</v>
+        <v>0.52882275540935808</v>
       </c>
       <c r="BC43" s="0">
         <v>0</v>
@@ -8960,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="BI43" s="0">
-        <v>0</v>
+        <v>0.66024493063784795</v>
       </c>
       <c r="BJ43" s="0">
         <v>0</v>
@@ -8986,7 +8986,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0</v>
+        <v>0.8138049651943049</v>
       </c>
       <c r="B44" s="0">
         <v>0</v>
@@ -9088,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="AI44" s="0">
-        <v>0</v>
+        <v>0.9043358249393415</v>
       </c>
       <c r="AJ44" s="0">
         <v>0</v>
@@ -9112,16 +9112,16 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0</v>
+        <v>0.92595582390999875</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9136,10 +9136,10 @@
         <v>0</v>
       </c>
       <c r="AY44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA44" s="0">
         <v>0</v>
@@ -9160,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="BG44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH44" s="0">
         <v>0</v>
@@ -9195,7 +9195,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" s="0">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="0">
-        <v>0</v>
+        <v>0.99917447557990213</v>
       </c>
       <c r="R45" s="0">
         <v>0</v>
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="0">
-        <v>0</v>
+        <v>0.79055575039330861</v>
       </c>
       <c r="AD45" s="0">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="AI45" s="0">
-        <v>0</v>
+        <v>0.96675497135287325</v>
       </c>
       <c r="AJ45" s="0">
         <v>0</v>
@@ -9303,13 +9303,13 @@
         <v>0</v>
       </c>
       <c r="AL45" s="0">
-        <v>0</v>
+        <v>0.8878446392593462</v>
       </c>
       <c r="AM45" s="0">
         <v>0</v>
       </c>
       <c r="AN45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO45" s="0">
         <v>0</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>0</v>
+        <v>0.53398024744262318</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>0</v>
+        <v>0.65503317394881666</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9360,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="BE45" s="0">
-        <v>0</v>
+        <v>0.75762307662870421</v>
       </c>
       <c r="BF45" s="0">
         <v>0</v>
@@ -9387,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="BN45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO45" s="0">
         <v>0</v>
@@ -9434,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" s="0">
         <v>0</v>
@@ -9458,7 +9458,7 @@
         <v>0</v>
       </c>
       <c r="U46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46" s="0">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="AI46" s="0">
-        <v>0</v>
+        <v>0.78769378498917841</v>
       </c>
       <c r="AJ46" s="0">
-        <v>0</v>
+        <v>0.88280646710731148</v>
       </c>
       <c r="AK46" s="0">
         <v>0</v>
@@ -9527,10 +9527,10 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9569,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="BF46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG46" s="0">
         <v>0</v>
@@ -9607,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" s="0">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" s="0">
         <v>0</v>
@@ -9670,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X47" s="0">
         <v>0</v>
@@ -9703,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="AH47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI47" s="0">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0</v>
+        <v>0.90801173144620162</v>
       </c>
       <c r="AT47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>0</v>
+        <v>0.94329904372179141</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9757,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="AZ47" s="0">
-        <v>0</v>
+        <v>0.70479162757974034</v>
       </c>
       <c r="BA47" s="0">
         <v>0</v>
@@ -9793,10 +9793,10 @@
         <v>0</v>
       </c>
       <c r="BL47" s="0">
-        <v>0</v>
+        <v>0.61406862604646362</v>
       </c>
       <c r="BM47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN47" s="0">
         <v>0</v>
@@ -9846,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="0">
-        <v>0</v>
+        <v>0.93587917286807554</v>
       </c>
       <c r="N48" s="0">
         <v>0</v>
@@ -9855,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="0">
-        <v>0</v>
+        <v>0.68904123226556035</v>
       </c>
       <c r="Q48" s="0">
         <v>0</v>
@@ -9879,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="0">
         <v>0</v>
@@ -9900,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF48" s="0">
         <v>0</v>
@@ -9915,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="0">
-        <v>0</v>
+        <v>0.82810492877370079</v>
       </c>
       <c r="AK48" s="0">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10005,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="BN48" s="0">
-        <v>0</v>
+        <v>0.65875399737478291</v>
       </c>
       <c r="BO48" s="0">
         <v>0</v>
@@ -10022,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="0">
-        <v>0</v>
+        <v>0.81865820731929939</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -10043,13 +10043,13 @@
         <v>0</v>
       </c>
       <c r="J49" s="0">
-        <v>0</v>
+        <v>0.99899785976173505</v>
       </c>
       <c r="K49" s="0">
         <v>0</v>
       </c>
       <c r="L49" s="0">
-        <v>0</v>
+        <v>0.94118808365549866</v>
       </c>
       <c r="M49" s="0">
         <v>0</v>
@@ -10079,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="V49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49" s="0">
         <v>0</v>
@@ -10097,7 +10097,7 @@
         <v>0</v>
       </c>
       <c r="AB49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC49" s="0">
         <v>0</v>
@@ -10106,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="AE49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF49" s="0">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="AH49" s="0">
-        <v>0</v>
+        <v>0.55900286603219884</v>
       </c>
       <c r="AI49" s="0">
         <v>0</v>
@@ -10154,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0</v>
+        <v>0.82589096873717094</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="BG49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH49" s="0">
         <v>0</v>
@@ -10270,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" s="0">
         <v>0</v>
@@ -10327,7 +10327,7 @@
         <v>0</v>
       </c>
       <c r="AJ50" s="0">
-        <v>0</v>
+        <v>0.91821054962143256</v>
       </c>
       <c r="AK50" s="0">
         <v>0</v>
@@ -10342,7 +10342,7 @@
         <v>0</v>
       </c>
       <c r="AO50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP50" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="0">
         <v>0</v>
@@ -10387,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="BD50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE50" s="0">
         <v>0</v>
@@ -10396,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="BG50" s="0">
-        <v>0</v>
+        <v>0.53864991896840908</v>
       </c>
       <c r="BH50" s="0">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="AA51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB51" s="0">
         <v>0</v>
@@ -10515,13 +10515,13 @@
         <v>0</v>
       </c>
       <c r="AD51" s="0">
-        <v>0</v>
+        <v>0.95417480482254102</v>
       </c>
       <c r="AE51" s="0">
         <v>0</v>
       </c>
       <c r="AF51" s="0">
-        <v>0</v>
+        <v>0.81722721437534629</v>
       </c>
       <c r="AG51" s="0">
         <v>0</v>
@@ -10557,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="AR51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS51" s="0">
         <v>0</v>
@@ -10575,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="BI51" s="0">
-        <v>0</v>
+        <v>0.69813040265485948</v>
       </c>
       <c r="BJ51" s="0">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="0">
         <v>0</v>
@@ -10697,7 +10697,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52" s="0">
         <v>0</v>
@@ -10760,10 +10760,10 @@
         <v>0</v>
       </c>
       <c r="AQ52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS52" s="0">
         <v>0</v>
@@ -10772,7 +10772,7 @@
         <v>0</v>
       </c>
       <c r="AU52" s="0">
-        <v>0</v>
+        <v>0.78549630371845347</v>
       </c>
       <c r="AV52" s="0">
         <v>0</v>
@@ -10802,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="BE52" s="0">
-        <v>0</v>
+        <v>0.7120794129749447</v>
       </c>
       <c r="BF52" s="0">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="BM52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN52" s="0">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -10918,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="AA53" s="0">
-        <v>0</v>
+        <v>0.66662283492376895</v>
       </c>
       <c r="AB53" s="0">
         <v>0</v>
@@ -10936,7 +10936,7 @@
         <v>0</v>
       </c>
       <c r="AG53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH53" s="0">
         <v>0</v>
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="AM53" s="0">
-        <v>0</v>
+        <v>0.80140223940698307</v>
       </c>
       <c r="AN53" s="0">
         <v>0</v>
@@ -11002,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11020,7 +11020,7 @@
         <v>0</v>
       </c>
       <c r="BI53" s="0">
-        <v>0</v>
+        <v>0.80158359597109907</v>
       </c>
       <c r="BJ53" s="0">
         <v>0</v>
@@ -11067,7 +11067,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="0">
         <v>0</v>
@@ -11127,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="0">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="0">
-        <v>0</v>
+        <v>0.88523117772581761</v>
       </c>
       <c r="AL54" s="0">
         <v>0</v>
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="AQ54" s="0">
-        <v>0</v>
+        <v>0.79347437694639145</v>
       </c>
       <c r="AR54" s="0">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0</v>
+        <v>0.52858098937437281</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11226,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="BI54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ54" s="0">
         <v>0</v>
@@ -11247,7 +11247,7 @@
         <v>0</v>
       </c>
       <c r="BP54" s="0">
-        <v>0</v>
+        <v>0.75661221783515409</v>
       </c>
     </row>
     <row r="55">
@@ -11303,16 +11303,16 @@
         <v>0</v>
       </c>
       <c r="R55" s="0">
-        <v>0</v>
+        <v>0.6340915922059438</v>
       </c>
       <c r="S55" s="0">
-        <v>0</v>
+        <v>0.85288851592153669</v>
       </c>
       <c r="T55" s="0">
         <v>0</v>
       </c>
       <c r="U55" s="0">
-        <v>0</v>
+        <v>0.70913361203969427</v>
       </c>
       <c r="V55" s="0">
         <v>0</v>
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="0">
-        <v>0</v>
+        <v>0.6260054609077913</v>
       </c>
       <c r="Z55" s="0">
         <v>0</v>
@@ -11357,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="0">
-        <v>0</v>
+        <v>0.71348258537089682</v>
       </c>
       <c r="AK55" s="0">
         <v>0</v>
@@ -11408,10 +11408,10 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>0</v>
+        <v>0.86332551907873656</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11458,7 +11458,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0</v>
+        <v>0.57301178395024621</v>
       </c>
       <c r="B56" s="0">
         <v>0</v>
@@ -11539,10 +11539,10 @@
         <v>0</v>
       </c>
       <c r="AB56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD56" s="0">
         <v>0</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="AP56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ56" s="0">
         <v>0</v>
@@ -11605,7 +11605,7 @@
         <v>0</v>
       </c>
       <c r="AX56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY56" s="0">
         <v>0</v>
@@ -11626,13 +11626,13 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0</v>
+        <v>0.97662872435796177</v>
       </c>
       <c r="BF56" s="0">
-        <v>0</v>
+        <v>0.83448622805658856</v>
       </c>
       <c r="BG56" s="0">
-        <v>0</v>
+        <v>0.81724573200936013</v>
       </c>
       <c r="BH56" s="0">
         <v>0</v>
@@ -11700,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="0">
-        <v>0</v>
+        <v>0.61358795025333679</v>
       </c>
       <c r="N57" s="0">
         <v>0</v>
@@ -11715,7 +11715,7 @@
         <v>0</v>
       </c>
       <c r="R57" s="0">
-        <v>0</v>
+        <v>0.6623749018095999</v>
       </c>
       <c r="S57" s="0">
         <v>0</v>
@@ -11724,7 +11724,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57" s="0">
         <v>0</v>
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="0">
-        <v>0</v>
+        <v>0.75601635924808508</v>
       </c>
       <c r="AT57" s="0">
         <v>0</v>
@@ -11817,7 +11817,7 @@
         <v>0</v>
       </c>
       <c r="AZ57" s="0">
-        <v>0</v>
+        <v>0.75828482042954226</v>
       </c>
       <c r="BA57" s="0">
         <v>0</v>
@@ -11826,10 +11826,10 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>0</v>
+        <v>0.55247491986941022</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11876,7 +11876,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="0">
-        <v>0</v>
+        <v>0.67742353579946091</v>
       </c>
       <c r="D58" s="0">
         <v>0</v>
@@ -11924,7 +11924,7 @@
         <v>0</v>
       </c>
       <c r="S58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T58" s="0">
         <v>0</v>
@@ -11951,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="AB58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="0">
         <v>0</v>
@@ -12005,7 +12005,7 @@
         <v>0</v>
       </c>
       <c r="AT58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU58" s="0">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0</v>
+        <v>0.79434457644932355</v>
       </c>
       <c r="BE58" s="0">
         <v>0</v>
@@ -12151,7 +12151,7 @@
         <v>0</v>
       </c>
       <c r="Z59" s="0">
-        <v>0</v>
+        <v>0.88329002693672387</v>
       </c>
       <c r="AA59" s="0">
         <v>0</v>
@@ -12172,7 +12172,7 @@
         <v>0</v>
       </c>
       <c r="AG59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH59" s="0">
         <v>0</v>
@@ -12190,7 +12190,7 @@
         <v>0</v>
       </c>
       <c r="AM59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN59" s="0">
         <v>0</v>
@@ -12205,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="AR59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS59" s="0">
         <v>0</v>
@@ -12220,10 +12220,10 @@
         <v>0</v>
       </c>
       <c r="AW59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX59" s="0">
-        <v>0</v>
+        <v>0.92561176583749494</v>
       </c>
       <c r="AY59" s="0">
         <v>0</v>
@@ -12241,10 +12241,10 @@
         <v>0</v>
       </c>
       <c r="BD59" s="0">
-        <v>0</v>
+        <v>0.83243223527337618</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12262,7 +12262,7 @@
         <v>0</v>
       </c>
       <c r="BK59" s="0">
-        <v>0</v>
+        <v>0.87482823961610501</v>
       </c>
       <c r="BL59" s="0">
         <v>0</v>
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="BN59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO59" s="0">
         <v>0</v>
@@ -12285,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="0">
-        <v>0</v>
+        <v>0.60960460956607598</v>
       </c>
       <c r="C60" s="0">
         <v>0</v>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>0</v>
+        <v>0.71565319465332133</v>
       </c>
       <c r="R60" s="0">
         <v>0</v>
@@ -12381,13 +12381,13 @@
         <v>0</v>
       </c>
       <c r="AH60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI60" s="0">
         <v>0</v>
       </c>
       <c r="AJ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK60" s="0">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="BO60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP60" s="0">
         <v>0</v>
@@ -12488,7 +12488,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B61" s="0">
         <v>0</v>
@@ -12533,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="0">
         <v>0</v>
@@ -12548,13 +12548,13 @@
         <v>0</v>
       </c>
       <c r="U61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61" s="0">
         <v>0</v>
       </c>
       <c r="W61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X61" s="0">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="AD61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE61" s="0">
         <v>0</v>
@@ -12590,7 +12590,7 @@
         <v>0</v>
       </c>
       <c r="AI61" s="0">
-        <v>0</v>
+        <v>0.85322746813735062</v>
       </c>
       <c r="AJ61" s="0">
         <v>0</v>
@@ -12614,7 +12614,7 @@
         <v>0</v>
       </c>
       <c r="AQ61" s="0">
-        <v>0</v>
+        <v>0.70827170310600929</v>
       </c>
       <c r="AR61" s="0">
         <v>0</v>
@@ -12638,16 +12638,16 @@
         <v>0</v>
       </c>
       <c r="AY61" s="0">
-        <v>0</v>
+        <v>0.68547768711105228</v>
       </c>
       <c r="AZ61" s="0">
         <v>0</v>
       </c>
       <c r="BA61" s="0">
-        <v>0</v>
+        <v>0.68430933342016065</v>
       </c>
       <c r="BB61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC61" s="0">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0</v>
+        <v>0.61979240953700654</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12778,7 +12778,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD62" s="0">
         <v>0</v>
@@ -12793,7 +12793,7 @@
         <v>0</v>
       </c>
       <c r="AH62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI62" s="0">
         <v>0</v>
@@ -12817,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="AP62" s="0">
-        <v>0</v>
+        <v>0.55313963743968619</v>
       </c>
       <c r="AQ62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>0</v>
+        <v>0.62129081195453684</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0</v>
+        <v>0.79710547056723768</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.66776884527252012</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12912,10 +12912,10 @@
         <v>0</v>
       </c>
       <c r="E63" s="0">
-        <v>0</v>
+        <v>0.85526080320548659</v>
       </c>
       <c r="F63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" s="0">
         <v>0</v>
@@ -12927,7 +12927,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="0">
         <v>0</v>
@@ -12939,7 +12939,7 @@
         <v>0</v>
       </c>
       <c r="N63" s="0">
-        <v>0</v>
+        <v>0.69054615329796176</v>
       </c>
       <c r="O63" s="0">
         <v>0</v>
@@ -12972,7 +12972,7 @@
         <v>0</v>
       </c>
       <c r="Y63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z63" s="0">
         <v>0</v>
@@ -13074,7 +13074,7 @@
         <v>0</v>
       </c>
       <c r="BG63" s="0">
-        <v>0</v>
+        <v>0.67420773598668504</v>
       </c>
       <c r="BH63" s="0">
         <v>0</v>
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0</v>
+        <v>0.71262141322281813</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13118,7 +13118,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="0">
         <v>0</v>
@@ -13136,7 +13136,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="0">
         <v>0</v>
@@ -13151,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="0">
-        <v>0</v>
+        <v>0.93150937489426089</v>
       </c>
       <c r="Q64" s="0">
         <v>0</v>
@@ -13217,7 +13217,7 @@
         <v>0</v>
       </c>
       <c r="AL64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64" s="0">
         <v>0</v>
@@ -13229,7 +13229,7 @@
         <v>0</v>
       </c>
       <c r="AP64" s="0">
-        <v>0</v>
+        <v>0.57310665934388527</v>
       </c>
       <c r="AQ64" s="0">
         <v>0</v>
@@ -13244,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="AU64" s="0">
-        <v>0</v>
+        <v>0.88677509468632709</v>
       </c>
       <c r="AV64" s="0">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.99842875449506108</v>
       </c>
       <c r="BK64" s="0">
         <v>0</v>
@@ -13312,10 +13312,10 @@
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" s="0">
         <v>0</v>
@@ -13324,7 +13324,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="0">
-        <v>0</v>
+        <v>0.75300269193620206</v>
       </c>
       <c r="F65" s="0">
         <v>0</v>
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="Q65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" s="0">
         <v>0</v>
@@ -13375,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="V65" s="0">
-        <v>0</v>
+        <v>0.57199541131162612</v>
       </c>
       <c r="W65" s="0">
         <v>0</v>
@@ -13390,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="AA65" s="0">
-        <v>0</v>
+        <v>0.51246268374141901</v>
       </c>
       <c r="AB65" s="0">
         <v>0</v>
@@ -13429,7 +13429,7 @@
         <v>0</v>
       </c>
       <c r="AN65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO65" s="0">
         <v>0</v>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="AU65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV65" s="0">
         <v>0</v>
@@ -13465,7 +13465,7 @@
         <v>0</v>
       </c>
       <c r="AZ65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA65" s="0">
         <v>0</v>
@@ -13513,7 +13513,7 @@
         <v>0</v>
       </c>
       <c r="BP65" s="0">
-        <v>0</v>
+        <v>0.99203902496058682</v>
       </c>
     </row>
     <row r="66">
@@ -13575,10 +13575,10 @@
         <v>0</v>
       </c>
       <c r="T66" s="0">
-        <v>0</v>
+        <v>0.72940181077259358</v>
       </c>
       <c r="U66" s="0">
-        <v>1</v>
+        <v>0.74044774567445004</v>
       </c>
       <c r="V66" s="0">
         <v>0</v>
@@ -13587,22 +13587,22 @@
         <v>0</v>
       </c>
       <c r="X66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y66" s="0">
-        <v>0</v>
+        <v>0.64837670085287491</v>
       </c>
       <c r="Z66" s="0">
         <v>0</v>
       </c>
       <c r="AA66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB66" s="0">
         <v>0</v>
       </c>
       <c r="AC66" s="0">
-        <v>0</v>
+        <v>0.8096935007882583</v>
       </c>
       <c r="AD66" s="0">
         <v>0</v>
@@ -13620,13 +13620,13 @@
         <v>0</v>
       </c>
       <c r="AI66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ66" s="0">
         <v>0</v>
       </c>
       <c r="AK66" s="0">
-        <v>0</v>
+        <v>0.9031959580633222</v>
       </c>
       <c r="AL66" s="0">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="AS66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT66" s="0">
         <v>0</v>
@@ -13659,7 +13659,7 @@
         <v>0</v>
       </c>
       <c r="AV66" s="0">
-        <v>0</v>
+        <v>0.63759749426376688</v>
       </c>
       <c r="AW66" s="0">
         <v>0</v>
@@ -13692,7 +13692,7 @@
         <v>0</v>
       </c>
       <c r="BG66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH66" s="0">
         <v>0</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13745,7 +13745,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="0">
-        <v>0</v>
+        <v>0.56221293831285934</v>
       </c>
       <c r="I67" s="0">
         <v>0</v>
@@ -13766,7 +13766,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="0">
-        <v>0</v>
+        <v>0.83480588544593382</v>
       </c>
       <c r="P67" s="0">
         <v>0</v>
@@ -13814,10 +13814,10 @@
         <v>0</v>
       </c>
       <c r="AE67" s="0">
-        <v>0</v>
+        <v>0.92123005172910599</v>
       </c>
       <c r="AF67" s="0">
-        <v>0</v>
+        <v>0.81858550890327386</v>
       </c>
       <c r="AG67" s="0">
         <v>0</v>
@@ -13901,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="BH67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI67" s="0">
         <v>0</v>
@@ -13925,12 +13925,12 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.77371520620119849</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" s="0">
         <v>0</v>
@@ -13963,7 +13963,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" s="0">
         <v>0</v>
@@ -13981,7 +13981,7 @@
         <v>0</v>
       </c>
       <c r="R68" s="0">
-        <v>0</v>
+        <v>0.67611593395556635</v>
       </c>
       <c r="S68" s="0">
         <v>0</v>
@@ -14089,7 +14089,7 @@
         <v>0</v>
       </c>
       <c r="BB68" s="0">
-        <v>0</v>
+        <v>0.66596661170754445</v>
       </c>
       <c r="BC68" s="0">
         <v>0</v>
@@ -14122,13 +14122,13 @@
         <v>0</v>
       </c>
       <c r="BM68" s="0">
-        <v>0</v>
+        <v>0.68841756207586824</v>
       </c>
       <c r="BN68" s="0">
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.9181476582071556</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject45.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject45.xlsx
@@ -143,7 +143,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="0">
-        <v>0.77853789799922701</v>
+        <v>0.79018535775080501</v>
       </c>
       <c r="G1" s="0">
         <v>0</v>
@@ -182,7 +182,7 @@
         <v>0</v>
       </c>
       <c r="S1" s="0">
-        <v>0.5467301662695494</v>
+        <v>0.69576715418328594</v>
       </c>
       <c r="T1" s="0">
         <v>0</v>
@@ -343,7 +343,7 @@
         <v>0.88787566080525582</v>
       </c>
       <c r="D2" s="0">
-        <v>0.67323136255652782</v>
+        <v>0.7031089418635007</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>0.85488165432904339</v>
+        <v>0.88787566080525582</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="AH3" s="0">
-        <v>0.76240739805767177</v>
+        <v>0.84995011930361619</v>
       </c>
       <c r="AI3" s="0">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="0">
-        <v>0.92770229711139884</v>
+        <v>0.9765819274626697</v>
       </c>
       <c r="AJ4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.96324015957352793</v>
+        <v>0.98449714208956496</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.80009934897341195</v>
+        <v>0.95513095931378633</v>
       </c>
       <c r="L5" s="0">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="0">
-        <v>0.6738229447761761</v>
+        <v>0.81100850698411664</v>
       </c>
       <c r="X5" s="0">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="BK5" s="0">
-        <v>0.74598069908260956</v>
+        <v>0.85526080320548659</v>
       </c>
       <c r="BL5" s="0">
         <v>0</v>
       </c>
       <c r="BM5" s="0">
-        <v>0.61567187105863974</v>
+        <v>0.75300269193620206</v>
       </c>
       <c r="BN5" s="0">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="0">
-        <v>0.79689313633177428</v>
+        <v>0.95018849545554251</v>
       </c>
       <c r="AC6" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>0.83685936232352698</v>
+        <v>0.89602084631394652</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="0">
-        <v>0.56323036009011251</v>
+        <v>0.73600656612360571</v>
       </c>
       <c r="AB8" s="0">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0.5614685667754522</v>
+        <v>0.80626688197643537</v>
       </c>
       <c r="K9" s="0">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="0">
-        <v>0.55148863906265966</v>
+        <v>0.79076226732455523</v>
       </c>
       <c r="AC9" s="0">
         <v>0</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="AD10" s="0">
-        <v>0.50156011054734639</v>
+        <v>0.66511208963471757</v>
       </c>
       <c r="AE10" s="0">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="AO10" s="0">
-        <v>0.71281932871237974</v>
+        <v>0.88937600476641099</v>
       </c>
       <c r="AP10" s="0">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="AW10" s="0">
-        <v>0.59044890807212536</v>
+        <v>0.99899785976173505</v>
       </c>
       <c r="AX10" s="0">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0.5553899463375116</v>
+        <v>0.87267717828443714</v>
       </c>
       <c r="M11" s="0">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="0">
-        <v>0.661320297469292</v>
+        <v>0.72109625596507732</v>
       </c>
       <c r="Z12" s="0">
         <v>0</v>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="AV13" s="0">
-        <v>0.81196046548103462</v>
+        <v>0.93587917286807554</v>
       </c>
       <c r="AW13" s="0">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0.64798351555825362</v>
+        <v>0.76019292256769089</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="BK14" s="0">
-        <v>0.66354921052338267</v>
+        <v>0.69054615329796176</v>
       </c>
       <c r="BL14" s="0">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0.75037030688129813</v>
+        <v>0.86677883135664335</v>
       </c>
       <c r="N15" s="0">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="BO15" s="0">
-        <v>0.55415013241486388</v>
+        <v>0.83480588544593382</v>
       </c>
       <c r="BP15" s="0">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="0">
-        <v>0.64138180816615176</v>
+        <v>0.64758064153153905</v>
       </c>
       <c r="E16" s="0">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.57926947881453739</v>
+        <v>0.61936001823260201</v>
       </c>
       <c r="R16" s="0">
         <v>0.90384115330057657</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="AE16" s="0">
-        <v>0.57201703257634084</v>
+        <v>0.80325076403895723</v>
       </c>
       <c r="AF16" s="0">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="BL16" s="0">
-        <v>0.56614364076407175</v>
+        <v>0.93150937489426089</v>
       </c>
       <c r="BM16" s="0">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>0.57423780413915004</v>
+        <v>0.756576339529201</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="0">
-        <v>0.67227884152434192</v>
+        <v>0.99917447557990213</v>
       </c>
       <c r="AT17" s="0">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="BH17" s="0">
-        <v>0.53059101095886319</v>
+        <v>0.71565319465332133</v>
       </c>
       <c r="BI17" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0.63882407354465309</v>
+        <v>0.90384115330057657</v>
       </c>
       <c r="Q18" s="0">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="0">
-        <v>0.802676436554002</v>
+        <v>0.99071476038459161</v>
       </c>
       <c r="X18" s="0">
         <v>0</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="BE18" s="0">
-        <v>0.53873770890027561</v>
+        <v>0.6623749018095999</v>
       </c>
       <c r="BF18" s="0">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="BC19" s="0">
-        <v>0.78167505559929507</v>
+        <v>0.85288851592153669</v>
       </c>
       <c r="BD19" s="0">
         <v>0</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="0">
-        <v>0.69874176995994386</v>
+        <v>0.97640950058664844</v>
       </c>
       <c r="AD20" s="0">
         <v>0</v>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="BN20" s="0">
-        <v>0.53425768910085103</v>
+        <v>0.72940181077259358</v>
       </c>
       <c r="BO20" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0.50866317433686214</v>
+        <v>0.97604307442460558</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="0">
-        <v>0.93311518863062903</v>
+        <v>0.956596073124097</v>
       </c>
       <c r="AQ21" s="0">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="BN21" s="0">
-        <v>0.65557472169397724</v>
+        <v>0.74044774567445004</v>
       </c>
       <c r="BO21" s="0">
         <v>0</v>
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="0">
-        <v>0.60827542888161057</v>
+        <v>0.89551807731388067</v>
       </c>
       <c r="K22" s="0">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0.61486737116964196</v>
+        <v>0.83239868529799588</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="AN24" s="0">
-        <v>0.52272693161723915</v>
+        <v>0.64177570949874752</v>
       </c>
       <c r="AO24" s="0">
         <v>0</v>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="0">
-        <v>0.60879697106592223</v>
+        <v>0.63627467639839552</v>
       </c>
       <c r="F25" s="0">
         <v>0</v>
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="0">
-        <v>0.62777282884623808</v>
+        <v>0.94000264106789566</v>
       </c>
       <c r="O25" s="0">
         <v>0</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="BC25" s="0">
-        <v>0.54479517080819972</v>
+        <v>0.6260054609077913</v>
       </c>
       <c r="BD25" s="0">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="BN25" s="0">
-        <v>0.55752460343827992</v>
+        <v>0.64837670085287491</v>
       </c>
       <c r="BO25" s="0">
         <v>0</v>
@@ -5326,13 +5326,13 @@
         <v>0</v>
       </c>
       <c r="Q26" s="0">
-        <v>0.57889208346854426</v>
+        <v>0.76403612539546528</v>
       </c>
       <c r="R26" s="0">
         <v>0</v>
       </c>
       <c r="S26" s="0">
-        <v>0.78306299668792323</v>
+        <v>0.91887093951296794</v>
       </c>
       <c r="T26" s="0">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0.86972341326730884</v>
+        <v>0.90384952706383559</v>
       </c>
       <c r="AB26" s="0">
         <v>0</v>
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="BG26" s="0">
-        <v>0.74090668724721787</v>
+        <v>0.88329002693672387</v>
       </c>
       <c r="BH26" s="0">
         <v>0</v>
@@ -5708,7 +5708,7 @@
         <v>0.95018849545554251</v>
       </c>
       <c r="G28" s="0">
-        <v>0.51328232112628336</v>
+        <v>0.94755420208512386</v>
       </c>
       <c r="H28" s="0">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0.55555020952685774</v>
+        <v>0.83660340813047196</v>
       </c>
       <c r="AD28" s="0">
         <v>0.81947018426648743</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="AS29" s="0">
-        <v>0.72124516713060771</v>
+        <v>0.79055575039330861</v>
       </c>
       <c r="AT29" s="0">
         <v>0</v>
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="BN29" s="0">
-        <v>0.52498819667158425</v>
+        <v>0.8096935007882583</v>
       </c>
       <c r="BO29" s="0">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="0">
-        <v>0.78675786332623965</v>
+        <v>0.79753030593918162</v>
       </c>
       <c r="Z30" s="0">
         <v>0</v>
@@ -6183,10 +6183,10 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0.59732323483126959</v>
+        <v>0.81947018426648743</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.70773791513499607</v>
+        <v>0.86951798018655779</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="AY30" s="0">
-        <v>0.72551740996712555</v>
+        <v>0.95417480482254102</v>
       </c>
       <c r="AZ30" s="0">
         <v>0</v>
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="BO31" s="0">
-        <v>0.59246282207847278</v>
+        <v>0.92123005172910599</v>
       </c>
       <c r="BP31" s="0">
         <v>0</v>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="0">
-        <v>0.52546578776959585</v>
+        <v>0.74544319674525106</v>
       </c>
       <c r="G32" s="0">
         <v>0</v>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="0">
-        <v>0.76712985222445562</v>
+        <v>0.84941820417649283</v>
       </c>
       <c r="AQ32" s="0">
         <v>0</v>
@@ -6664,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="AY32" s="0">
-        <v>0.50366363383340074</v>
+        <v>0.81722721437534629</v>
       </c>
       <c r="AZ32" s="0">
         <v>0</v>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="BO32" s="0">
-        <v>0.58236084375218533</v>
+        <v>0.81858550890327386</v>
       </c>
       <c r="BP32" s="0">
         <v>0</v>
@@ -6753,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="0">
-        <v>0.55834744686408921</v>
+        <v>0.92741919146586116</v>
       </c>
       <c r="M33" s="0">
         <v>0</v>
@@ -7022,13 +7022,13 @@
         <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>0.78026973810754752</v>
+        <v>0.87263251927219199</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0.53713766920000006</v>
+        <v>0.75057818544240384</v>
       </c>
       <c r="AJ34" s="0">
         <v>0</v>
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="0">
-        <v>0.53148176658800028</v>
+        <v>0.57331985238856387</v>
       </c>
       <c r="J35" s="0">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="0">
-        <v>0.81129420068164837</v>
+        <v>0.86169397716978047</v>
       </c>
       <c r="S35" s="0">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="AN35" s="0">
-        <v>0.5295161698426214</v>
+        <v>0.77033594566730446</v>
       </c>
       <c r="AO35" s="0">
         <v>0</v>
@@ -7264,7 +7264,7 @@
         <v>0.95518873983132346</v>
       </c>
       <c r="AS35" s="0">
-        <v>0.6678791365153518</v>
+        <v>0.96675497135287325</v>
       </c>
       <c r="AT35" s="0">
         <v>0.84433162863099764</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="BI35" s="0">
-        <v>0.84741722442029899</v>
+        <v>0.85322746813735062</v>
       </c>
       <c r="BJ35" s="0">
         <v>0</v>
@@ -7473,19 +7473,19 @@
         <v>0</v>
       </c>
       <c r="AT36" s="0">
-        <v>0.59051382687570309</v>
+        <v>0.88280646710731148</v>
       </c>
       <c r="AU36" s="0">
         <v>0</v>
       </c>
       <c r="AV36" s="0">
-        <v>0.81041923061600141</v>
+        <v>0.82810492877370079</v>
       </c>
       <c r="AW36" s="0">
         <v>0</v>
       </c>
       <c r="AX36" s="0">
-        <v>0.69064841048950443</v>
+        <v>0.91821054962143256</v>
       </c>
       <c r="AY36" s="0">
         <v>0</v>
@@ -7703,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="BB37" s="0">
-        <v>0.84733476913379069</v>
+        <v>0.88523117772581761</v>
       </c>
       <c r="BC37" s="0">
         <v>0</v>
@@ -7739,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="BN37" s="0">
-        <v>0.82203350126610619</v>
+        <v>0.9031959580633222</v>
       </c>
       <c r="BO37" s="0">
         <v>0</v>
@@ -7855,10 +7855,10 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.56952744235421982</v>
+        <v>0.77007352570502285</v>
       </c>
       <c r="AK38" s="0">
-        <v>0.75616504441078691</v>
+        <v>0.88683404505860641</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="0">
-        <v>0.73023025084643089</v>
+        <v>0.8878446392593462</v>
       </c>
       <c r="AT38" s="0">
         <v>0</v>
@@ -7965,10 +7965,10 @@
         <v>0</v>
       </c>
       <c r="D39" s="0">
-        <v>0.65241505266027544</v>
+        <v>0.81693578906598452</v>
       </c>
       <c r="E39" s="0">
-        <v>0.87447052851089913</v>
+        <v>0.92650819652594851</v>
       </c>
       <c r="F39" s="0">
         <v>0</v>
@@ -8180,7 +8180,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="0">
-        <v>0.62120867492940079</v>
+        <v>0.82477703934416624</v>
       </c>
       <c r="H40" s="0">
         <v>0</v>
@@ -8234,7 +8234,7 @@
         <v>0.64177570949874752</v>
       </c>
       <c r="Y40" s="0">
-        <v>0.72381150398608818</v>
+        <v>0.75684374976597313</v>
       </c>
       <c r="Z40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.94139581176148468</v>
+        <v>0.94998423776447494</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8443,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="Z41" s="0">
-        <v>0.51159483726583344</v>
+        <v>0.65876693632065453</v>
       </c>
       <c r="AA41" s="0">
         <v>0</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0.70953944262838531</v>
+        <v>0.95539783835504055</v>
       </c>
       <c r="AQ41" s="0">
         <v>0</v>
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="BJ42" s="0">
-        <v>0.54600696283108652</v>
+        <v>0.55313963743968619</v>
       </c>
       <c r="BK42" s="0">
         <v>0</v>
@@ -8801,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="0">
-        <v>0.65612292190741917</v>
+        <v>0.70665628648062784</v>
       </c>
       <c r="I43" s="0">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="BB43" s="0">
-        <v>0.52882275540935808</v>
+        <v>0.79347437694639145</v>
       </c>
       <c r="BC43" s="0">
         <v>0</v>
@@ -8960,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="BI43" s="0">
-        <v>0.66024493063784795</v>
+        <v>0.70827170310600929</v>
       </c>
       <c r="BJ43" s="0">
         <v>0</v>
@@ -8986,7 +8986,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.8138049651943049</v>
+        <v>0.86604774456873379</v>
       </c>
       <c r="B44" s="0">
         <v>0</v>
@@ -9088,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="AI44" s="0">
-        <v>0.9043358249393415</v>
+        <v>0.95518873983132346</v>
       </c>
       <c r="AJ44" s="0">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.53398024744262318</v>
+        <v>0.92595582390999875</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>0.65503317394881666</v>
+        <v>0.90801173144620162</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="AI46" s="0">
-        <v>0.78769378498917841</v>
+        <v>0.84433162863099764</v>
       </c>
       <c r="AJ46" s="0">
         <v>0.88280646710731148</v>
@@ -9757,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="AZ47" s="0">
-        <v>0.70479162757974034</v>
+        <v>0.78549630371845347</v>
       </c>
       <c r="BA47" s="0">
         <v>0</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="BL47" s="0">
-        <v>0.61406862604646362</v>
+        <v>0.88677509468632709</v>
       </c>
       <c r="BM47" s="0">
         <v>0</v>
@@ -9855,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="0">
-        <v>0.68904123226556035</v>
+        <v>0.85962838291168964</v>
       </c>
       <c r="Q48" s="0">
         <v>0</v>
@@ -10022,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="0">
-        <v>0.81865820731929939</v>
+        <v>0.88756943839004632</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -10049,7 +10049,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="0">
-        <v>0.94118808365549866</v>
+        <v>0.98076436028305713</v>
       </c>
       <c r="M49" s="0">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="AH49" s="0">
-        <v>0.55900286603219884</v>
+        <v>0.83689941199121631</v>
       </c>
       <c r="AI49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0.82589096873717094</v>
+        <v>0.94329904372179141</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10396,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="BG50" s="0">
-        <v>0.53864991896840908</v>
+        <v>0.92561176583749494</v>
       </c>
       <c r="BH50" s="0">
         <v>0</v>
@@ -10802,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="BE52" s="0">
-        <v>0.7120794129749447</v>
+        <v>0.75828482042954226</v>
       </c>
       <c r="BF52" s="0">
         <v>0</v>
@@ -10918,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="AA53" s="0">
-        <v>0.66662283492376895</v>
+        <v>0.67053213841378145</v>
       </c>
       <c r="AB53" s="0">
         <v>0</v>
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="AM53" s="0">
-        <v>0.80140223940698307</v>
+        <v>0.94809832096793945</v>
       </c>
       <c r="AN53" s="0">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0.52858098937437281</v>
+        <v>0.86332551907873656</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="R55" s="0">
-        <v>0.6340915922059438</v>
+        <v>0.92738685193224946</v>
       </c>
       <c r="S55" s="0">
         <v>0.85288851592153669</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="0">
-        <v>0.70913361203969427</v>
+        <v>0.92143504173130286</v>
       </c>
       <c r="V55" s="0">
         <v>0</v>
@@ -11357,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="AJ55" s="0">
-        <v>0.71348258537089682</v>
+        <v>0.96034134877972621</v>
       </c>
       <c r="AK55" s="0">
         <v>0</v>
@@ -11458,7 +11458,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.57301178395024621</v>
+        <v>0.66179256081261295</v>
       </c>
       <c r="B56" s="0">
         <v>0</v>
@@ -11632,7 +11632,7 @@
         <v>0.83448622805658856</v>
       </c>
       <c r="BG56" s="0">
-        <v>0.81724573200936013</v>
+        <v>0.83243223527337618</v>
       </c>
       <c r="BH56" s="0">
         <v>0</v>
@@ -11700,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="0">
-        <v>0.61358795025333679</v>
+        <v>0.93266157258777183</v>
       </c>
       <c r="N57" s="0">
         <v>0</v>
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="0">
-        <v>0.75601635924808508</v>
+        <v>0.75762307662870421</v>
       </c>
       <c r="AT57" s="0">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.55247491986941022</v>
+        <v>0.97662872435796177</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11876,7 +11876,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="0">
-        <v>0.67742353579946091</v>
+        <v>0.89284263218044668</v>
       </c>
       <c r="D58" s="0">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0.79434457644932355</v>
+        <v>0.83448622805658856</v>
       </c>
       <c r="BE58" s="0">
         <v>0</v>
@@ -12285,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="0">
-        <v>0.60960460956607598</v>
+        <v>0.95475615606438435</v>
       </c>
       <c r="C60" s="0">
         <v>0</v>
@@ -12638,13 +12638,13 @@
         <v>0</v>
       </c>
       <c r="AY61" s="0">
-        <v>0.68547768711105228</v>
+        <v>0.69813040265485948</v>
       </c>
       <c r="AZ61" s="0">
         <v>0</v>
       </c>
       <c r="BA61" s="0">
-        <v>0.68430933342016065</v>
+        <v>0.80158359597109907</v>
       </c>
       <c r="BB61" s="0">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.61979240953700654</v>
+        <v>0.62129081195453684</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0.79710547056723768</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.66776884527252012</v>
+        <v>0.99842875449506108</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13074,7 +13074,7 @@
         <v>0</v>
       </c>
       <c r="BG63" s="0">
-        <v>0.67420773598668504</v>
+        <v>0.87482823961610501</v>
       </c>
       <c r="BH63" s="0">
         <v>0</v>
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0.71262141322281813</v>
+        <v>0.79710547056723768</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13229,7 +13229,7 @@
         <v>0</v>
       </c>
       <c r="AP64" s="0">
-        <v>0.57310665934388527</v>
+        <v>0.89739070863922188</v>
       </c>
       <c r="AQ64" s="0">
         <v>0</v>
@@ -13375,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="V65" s="0">
-        <v>0.57199541131162612</v>
+        <v>0.76391190988117863</v>
       </c>
       <c r="W65" s="0">
         <v>0</v>
@@ -13390,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="AA65" s="0">
-        <v>0.51246268374141901</v>
+        <v>0.929645074848652</v>
       </c>
       <c r="AB65" s="0">
         <v>0</v>
@@ -13659,7 +13659,7 @@
         <v>0</v>
       </c>
       <c r="AV66" s="0">
-        <v>0.63759749426376688</v>
+        <v>0.65875399737478291</v>
       </c>
       <c r="AW66" s="0">
         <v>0</v>
@@ -13745,7 +13745,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="0">
-        <v>0.56221293831285934</v>
+        <v>0.60042104541827612</v>
       </c>
       <c r="I67" s="0">
         <v>0</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0.77371520620119849</v>
+        <v>0.9181476582071556</v>
       </c>
     </row>
     <row r="68">
@@ -13981,7 +13981,7 @@
         <v>0</v>
       </c>
       <c r="R68" s="0">
-        <v>0.67611593395556635</v>
+        <v>0.70531692991587058</v>
       </c>
       <c r="S68" s="0">
         <v>0</v>
@@ -14089,7 +14089,7 @@
         <v>0</v>
       </c>
       <c r="BB68" s="0">
-        <v>0.66596661170754445</v>
+        <v>0.75661221783515409</v>
       </c>
       <c r="BC68" s="0">
         <v>0</v>
@@ -14122,7 +14122,7 @@
         <v>0</v>
       </c>
       <c r="BM68" s="0">
-        <v>0.68841756207586824</v>
+        <v>0.99203902496058682</v>
       </c>
       <c r="BN68" s="0">
         <v>0</v>
